--- a/data/long_bre/P37-Urba-long_bre.xlsx
+++ b/data/long_bre/P37-Urba-long_bre.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,10 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,12 +540,16 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -551,12 +566,32 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -567,6 +602,10 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -576,27 +615,47 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,61%</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>1,88</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-3,78%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3,22%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>13,45%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>6,32%</t>
         </is>
       </c>
     </row>
@@ -609,22 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 5,4</t>
+          <t>-9,5; 5,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 6,8</t>
+          <t>-5,08; 6,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-21,95; 19,64</t>
+          <t>-4,21; 9,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-16,62; 28,97</t>
+          <t>-5,47; 9,87</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-24,57; 19,73</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-16,58; 28,96</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-15,03; 46,86</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-16,46; 37,3</t>
         </is>
       </c>
     </row>
@@ -632,27 +711,47 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,58</t>
+          <t>-2,61</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,79%</t>
+          <t>-5,94</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-5,28%</t>
+          <t>-3,03</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-0,16%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-5,34%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-12,02%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-6,74%</t>
         </is>
       </c>
     </row>
@@ -665,22 +764,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 6,45</t>
+          <t>-6,89; 7,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,55; 3,82</t>
+          <t>-10,2; 3,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-15,79; 16,04</t>
+          <t>-15,58; 1,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-17,66; 8,67</t>
+          <t>-10,88; 5,06</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-14,2; 18,73</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-18,77; 8,77</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-27,31; 3,73</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-22,03; 12,91</t>
         </is>
       </c>
     </row>
@@ -688,27 +807,47 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,82</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>1,15</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5,56%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>7,14%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>10,08%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>4,57%</t>
         </is>
       </c>
     </row>
@@ -721,54 +860,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 7,59</t>
+          <t>-5,55; 7,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 7,27</t>
+          <t>-4,82; 6,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-18,11; 37,86</t>
+          <t>-3,99; 11,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,63; 34,19</t>
+          <t>-5,53; 7,75</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-21,16; 36,68</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-17,17; 30,79</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-14,0; 49,57</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-18,93; 34,99</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -781,50 +956,94 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 8,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 7,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-23,24; 34,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,29; 30,79</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-8,12</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>4,47</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-16,03%</t>
+          <t>9,93</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6,67%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3,94%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>16,14%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>49,29%</t>
         </is>
       </c>
     </row>
@@ -837,22 +1056,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 9,51</t>
+          <t>-6,51; 9,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,41; -1,44</t>
+          <t>-5,38; 7,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,04; 26,41</t>
+          <t>-4,44; 12,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-27,92; -2,86</t>
+          <t>-3,43; 22,33</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-19,02; 41,17</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-16,47; 29,82</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-14,13; 54,17</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-12,09; 155,49</t>
         </is>
       </c>
     </row>
@@ -860,27 +1099,47 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-2,41</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6,46</t>
+          <t>-7,91</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-8,65%</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>30,88%</t>
+          <t>-4,28</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1,72%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>-15,9%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-0,19%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-9,98%</t>
         </is>
       </c>
     </row>
@@ -893,54 +1152,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-10,35; 4,94</t>
+          <t>-7,36; 8,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,87; 12,78</t>
+          <t>-14,4; -0,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-31,38; 23,63</t>
+          <t>-8,91; 9,41</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,6; 74,73</t>
+          <t>-18,79; 13,14</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-15,54; 22,84</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-27,45; -0,92</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-17,55; 23,24</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-37,58; 40,67</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>-2,64</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>16,27</t>
+          <t>6,76</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>-4,38</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>99,62%</t>
+          <t>-5,66</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>-9,4%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>32,24%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-16,18%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-15,29%</t>
         </is>
       </c>
     </row>
@@ -953,22 +1248,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-13,15; 17,98</t>
+          <t>-10,34; 5,52</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,02; 28,03</t>
+          <t>0,94; 12,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-33,3; 76,85</t>
+          <t>-11,27; 3,2</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>19,06; 255,21</t>
+          <t>-27,76; 9,3</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-31,39; 23,83</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>4,02; 70,02</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-37,05; 14,58</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-56,3; 33,32</t>
         </is>
       </c>
     </row>
@@ -976,27 +1291,47 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-2,46</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-0,94%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-5,63%</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1009,50 +1344,94 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-14,21; 14,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-16,38; 11,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-32,07; 52,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-31,29; 31,79</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-1,82</t>
+          <t>3,44</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-13,81</t>
+          <t>16,52</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-6,04%</t>
+          <t>-8,03</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-34,54%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>10,83%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>100,79%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-21,55%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1065,54 +1444,90 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-18,73; 12,74</t>
+          <t>-11,42; 18,92</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-29,47; -0,42</t>
+          <t>5,67; 26,66</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-46,3; 61,24</t>
+          <t>-32,2; 10,89</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-60,05; -0,87</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-28,47; 79,89</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>27,35; 237,9</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-60,83; 52,53</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>-12,25</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>11,09%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-1,81%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-4,73%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-24,36%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1540,42 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 5,02</t>
+          <t>-15,88; 14,58</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 7,04</t>
+          <t>-16,85; 11,49</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-15,6; 17,94</t>
+          <t>-31,88; 11,51</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 29,58</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-33,85; 51,56</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-32,28; 32,4</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-49,33; 30,06</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1148,27 +1583,47 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>-2,78</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-4,67</t>
+          <t>-14,48</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>20,29</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-9,54%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>-8,78%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>-35,72%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>163,5%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1181,22 +1636,42 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 5,34</t>
+          <t>-22,55; 11,47</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-9,38; -0,07</t>
+          <t>-28,28; 0,02</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-10,73; 13,57</t>
+          <t>6,25; 33,48</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-17,98; -0,12</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>-51,13; 50,67</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>-57,02; 1,68</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>28,03; 507,29</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1679,47 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1,76</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-1,72%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1237,34 +1732,449 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 4,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 5,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-18,05; 18,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-8,65; 26,32</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>0,54</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>2,77</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>2,34</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>3,93</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>1,76%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>10,44%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>8,52%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>14,33%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>-5,06; 5,97</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>-1,08; 6,76</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>-3,53; 7,54</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>-2,31; 10,62</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-14,75; 21,31</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-3,98; 28,33</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-11,03; 30,76</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-8,01; 44,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>0,28</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>-4,52</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>-4,33</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>-3,2</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>0,65%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-9,32%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-9,06%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-7,19%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-4,7; 5,77</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-8,88; 0,39</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-10,96; 1,27</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-10,72; 4,15</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-10,27; 14,25</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-17,45; 0,7</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-20,89; 3,01</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-21,94; 10,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-0,82</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>1,76</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>-0,73</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-3,12%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>7,02%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>8,08%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>-2,6%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-5,46; 4,61</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-2,43; 5,65</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-2,94; 7,11</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-7,88; 5,65</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-18,79; 19,57</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-8,84; 25,26</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-11,04; 32,25</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-24,29; 22,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_bre/P37-Urba-long_bre.xlsx
+++ b/data/long_bre/P37-Urba-long_bre.xlsx
@@ -624,7 +624,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -720,7 +720,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -816,7 +816,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -916,7 +916,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1012,7 +1012,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1108,7 +1108,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1292,7 +1292,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1376,7 +1376,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1560,7 +1560,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1656,7 +1656,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
